--- a/task정의 및 일정.xlsx
+++ b/task정의 및 일정.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24020"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E8AEF5-2213-4AA9-9082-3E8CCC513596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14547C5A-9F33-4818-953F-B15FC50BD9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,8 +1554,8 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.45"/>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="76">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J9" s="64"/>
       <c r="K9" s="1"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="77">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="19"/>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="78">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J11" s="37"/>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="77">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J13" s="19"/>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="77">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J14" s="19"/>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="77">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="80">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J16" s="20"/>
       <c r="K16" s="1"/>

--- a/task정의 및 일정.xlsx
+++ b/task정의 및 일정.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14547C5A-9F33-4818-953F-B15FC50BD9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C50F664-AAD5-40A1-9599-FA4664F58217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,9 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -989,6 +986,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1554,8 +1554,8 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.45"/>
@@ -1692,25 +1692,25 @@
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56">
         <v>44313</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="57">
         <v>44354</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="58">
         <v>44312</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61">
+      <c r="H6" s="59"/>
+      <c r="I6" s="60">
         <v>0.2</v>
       </c>
       <c r="J6" s="52"/>
@@ -1732,42 +1732,42 @@
       <c r="F7" s="87">
         <v>44319</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="69">
         <v>44312</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="51">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="94"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="86"/>
       <c r="F8" s="88"/>
-      <c r="G8" s="71">
+      <c r="G8" s="70">
         <v>44312</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="66">
         <v>44312</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="67">
         <v>1</v>
       </c>
-      <c r="J8" s="69"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="49" t="s">
@@ -1780,14 +1780,14 @@
       <c r="F9" s="103">
         <v>44333</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="58">
         <v>44312</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="76">
-        <v>0.8</v>
-      </c>
-      <c r="J9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="75">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="63"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
@@ -1802,12 +1802,12 @@
       <c r="D10" s="47"/>
       <c r="E10" s="95"/>
       <c r="F10" s="98"/>
-      <c r="G10" s="72">
+      <c r="G10" s="71">
         <v>44312</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="77">
-        <v>0.5</v>
+      <c r="I10" s="76">
+        <v>0.9</v>
       </c>
       <c r="J10" s="19"/>
     </row>
@@ -1822,12 +1822,12 @@
       </c>
       <c r="E11" s="95"/>
       <c r="F11" s="98"/>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <v>44312</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="78">
-        <v>0.4</v>
+      <c r="I11" s="77">
+        <v>0.5</v>
       </c>
       <c r="J11" s="37"/>
     </row>
@@ -1842,13 +1842,13 @@
       </c>
       <c r="E12" s="95"/>
       <c r="F12" s="98"/>
-      <c r="G12" s="74">
+      <c r="G12" s="73">
         <v>44312</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="70">
         <v>44312</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="78">
         <v>1</v>
       </c>
       <c r="J12" s="27"/>
@@ -1864,12 +1864,12 @@
       </c>
       <c r="E13" s="95"/>
       <c r="F13" s="98"/>
-      <c r="G13" s="72">
+      <c r="G13" s="71">
         <v>44312</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="77">
-        <v>0.4</v>
+      <c r="I13" s="76">
+        <v>0.5</v>
       </c>
       <c r="J13" s="19"/>
     </row>
@@ -1884,12 +1884,12 @@
       </c>
       <c r="E14" s="95"/>
       <c r="F14" s="98"/>
-      <c r="G14" s="72">
+      <c r="G14" s="71">
         <v>44312</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="77">
-        <v>0.4</v>
+      <c r="I14" s="76">
+        <v>0.5</v>
       </c>
       <c r="J14" s="19"/>
     </row>
@@ -1904,12 +1904,12 @@
       </c>
       <c r="E15" s="95"/>
       <c r="F15" s="98"/>
-      <c r="G15" s="72">
+      <c r="G15" s="71">
         <v>44312</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="77">
-        <v>0.4</v>
+      <c r="I15" s="76">
+        <v>0.5</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -1924,12 +1924,12 @@
       </c>
       <c r="E16" s="102"/>
       <c r="F16" s="104"/>
-      <c r="G16" s="75">
+      <c r="G16" s="74">
         <v>44312</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="80">
-        <v>0.4</v>
+      <c r="I16" s="79">
+        <v>0.5</v>
       </c>
       <c r="J16" s="20"/>
       <c r="K16" s="1"/>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="81"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="44"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1970,7 +1970,7 @@
       <c r="F18" s="98"/>
       <c r="G18" s="42"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="78"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="37"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1986,7 +1986,7 @@
       <c r="F19" s="98"/>
       <c r="G19" s="42"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="78"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2000,7 +2000,7 @@
       <c r="F20" s="98"/>
       <c r="G20" s="42"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="78"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2014,7 +2014,7 @@
       <c r="F21" s="98"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="79"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2028,7 +2028,7 @@
       <c r="F22" s="98"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="77"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2042,7 +2042,7 @@
       <c r="F23" s="98"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="77"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2056,7 +2056,7 @@
       <c r="F24" s="98"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2070,7 +2070,7 @@
       <c r="F25" s="104"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="80"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="81"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="44"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2104,7 +2104,7 @@
       <c r="F27" s="99"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="78"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2118,7 +2118,7 @@
       <c r="F28" s="99"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="78"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2132,7 +2132,7 @@
       <c r="F29" s="99"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="79"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2146,7 +2146,7 @@
       <c r="F30" s="99"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="77"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2160,7 +2160,7 @@
       <c r="F31" s="99"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="77"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2174,7 +2174,7 @@
       <c r="F32" s="99"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="77"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2188,7 +2188,7 @@
       <c r="F33" s="100"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="80"/>
+      <c r="I33" s="79"/>
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:12" ht="16.5">

--- a/task정의 및 일정.xlsx
+++ b/task정의 및 일정.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C50F664-AAD5-40A1-9599-FA4664F58217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3488854-1706-43A3-9908-8A78AB6C70EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>구분</t>
   </si>
@@ -163,7 +163,13 @@
     <t>회원관리 페이지</t>
   </si>
   <si>
+    <t>jsp/proj/admin/adminUser.jsp</t>
+  </si>
+  <si>
     <t>상품관리 페이지</t>
+  </si>
+  <si>
+    <t>proj/admin/web/AdminController.java</t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -737,13 +743,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1070,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,35 +1097,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1554,8 +1625,8 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.45"/>
@@ -1716,7 +1787,7 @@
       <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -1742,7 +1813,7 @@
       <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A8" s="94"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="64" t="s">
         <v>19</v>
       </c>
@@ -1763,7 +1834,7 @@
       </c>
       <c r="J8" s="68"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="92" t="s">
         <v>21</v>
       </c>
@@ -1774,10 +1845,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="49"/>
-      <c r="E9" s="101">
+      <c r="E9" s="102">
         <v>44320</v>
       </c>
-      <c r="F9" s="103">
+      <c r="F9" s="102">
         <v>44333</v>
       </c>
       <c r="G9" s="58">
@@ -1788,8 +1859,6 @@
         <v>0.9</v>
       </c>
       <c r="J9" s="63"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="82"/>
@@ -1800,8 +1869,8 @@
         <v>25</v>
       </c>
       <c r="D10" s="47"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="71">
         <v>44312</v>
       </c>
@@ -1812,7 +1881,7 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A11" s="83"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="38" t="s">
         <v>19</v>
       </c>
@@ -1820,19 +1889,19 @@
       <c r="D11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="72">
         <v>44312</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="77">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A12" s="83"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="38" t="s">
         <v>27</v>
       </c>
@@ -1840,8 +1909,8 @@
       <c r="D12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="73">
         <v>44312</v>
       </c>
@@ -1854,7 +1923,7 @@
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A13" s="83"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="38" t="s">
         <v>29</v>
       </c>
@@ -1862,19 +1931,19 @@
       <c r="D13" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="71">
         <v>44312</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="76">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A14" s="83"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
       </c>
@@ -1882,19 +1951,19 @@
       <c r="D14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="71">
         <v>44312</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="76">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A15" s="83"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="38" t="s">
         <v>33</v>
       </c>
@@ -1902,19 +1971,19 @@
       <c r="D15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="71">
         <v>44312</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="76">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5">
-      <c r="A16" s="84"/>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="16.5">
+      <c r="A16" s="93"/>
       <c r="B16" s="46" t="s">
         <v>35</v>
       </c>
@@ -1922,18 +1991,16 @@
       <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="104"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
       <c r="G16" s="74">
         <v>44312</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="79">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
       <c r="A17" s="82" t="s">
@@ -1942,14 +2009,14 @@
       <c r="B17" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="95">
+      <c r="D17" s="105"/>
+      <c r="E17" s="96">
         <v>44334</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="99">
         <v>44351</v>
       </c>
       <c r="G17" s="36"/>
@@ -1964,10 +2031,10 @@
       <c r="B18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="98"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="42"/>
       <c r="H18" s="4"/>
       <c r="I18" s="77"/>
@@ -1980,10 +2047,10 @@
       <c r="B19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="98"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="42"/>
       <c r="H19" s="4"/>
       <c r="I19" s="77"/>
@@ -1994,10 +2061,10 @@
       <c r="B20" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="98"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="42"/>
       <c r="H20" s="4"/>
       <c r="I20" s="77"/>
@@ -2008,10 +2075,10 @@
       <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="98"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="78"/>
@@ -2022,10 +2089,10 @@
       <c r="B22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="98"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="76"/>
@@ -2036,10 +2103,10 @@
       <c r="B23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="98"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="76"/>
@@ -2050,59 +2117,67 @@
       <c r="B24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="98"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="76"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A25" s="84"/>
-      <c r="B25" s="46" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="20"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="95">
+      <c r="C26" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="111">
         <v>44354</v>
       </c>
-      <c r="F26" s="98">
+      <c r="F26" s="102">
         <v>44365</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="44"/>
+      <c r="G26" s="69">
+        <v>44315</v>
+      </c>
+      <c r="H26" s="112"/>
+      <c r="I26" s="113">
+        <v>0.3</v>
+      </c>
+      <c r="J26" s="114"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="16.5">
       <c r="A27" s="83"/>
       <c r="B27" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="117"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="4"/>
       <c r="I27" s="77"/>
       <c r="J27" s="37"/>
@@ -2112,13 +2187,19 @@
       <c r="B28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="4"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="97"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="34">
+        <v>44315</v>
+      </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="77"/>
+      <c r="I28" s="77">
+        <v>0.1</v>
+      </c>
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="16.5">
@@ -2126,10 +2207,12 @@
       <c r="B29" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="99"/>
+      <c r="C29" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="105"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="100"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="78"/>
@@ -2140,10 +2223,10 @@
       <c r="B30" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="99"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="100"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="76"/>
@@ -2154,10 +2237,10 @@
       <c r="B31" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="99"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="100"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="76"/>
@@ -2168,10 +2251,10 @@
       <c r="B32" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="99"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="100"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="76"/>
@@ -2182,10 +2265,10 @@
       <c r="B33" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="100"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="101"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="79"/>
@@ -2220,7 +2303,8 @@
       <c r="L35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="C29:D33"/>
     <mergeCell ref="A17:A25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="E7:E8"/>
@@ -2234,7 +2318,8 @@
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="E17:E25"/>
     <mergeCell ref="F17:F25"/>
-    <mergeCell ref="C17:D33"/>
+    <mergeCell ref="C17:D25"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>

--- a/task정의 및 일정.xlsx
+++ b/task정의 및 일정.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3488854-1706-43A3-9908-8A78AB6C70EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A018063-A838-4B73-903C-1ED8F40DBFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>구분</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>상품관리 페이지</t>
+  </si>
+  <si>
+    <t>interceptor</t>
+  </si>
+  <si>
+    <t>proj/com/interceptor/AuthenticationInterceptor.java</t>
   </si>
   <si>
     <t>proj/admin/web/AdminController.java</t>
@@ -206,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -784,13 +790,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1037,40 +1054,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1079,74 +1132,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,11 +1651,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.45"/>
@@ -1687,7 +1716,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="102" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1715,7 +1744,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A4" s="90"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1739,7 +1768,7 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A5" s="91"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1816,7 @@
       <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="106" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -1797,10 +1826,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="49"/>
-      <c r="E7" s="85">
+      <c r="E7" s="98">
         <v>44316</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="100">
         <v>44319</v>
       </c>
       <c r="G7" s="69">
@@ -1813,7 +1842,7 @@
       <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A8" s="95"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="64" t="s">
         <v>19</v>
       </c>
@@ -1821,8 +1850,8 @@
       <c r="D8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="88"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="70">
         <v>44312</v>
       </c>
@@ -1835,7 +1864,7 @@
       <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="96" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="61" t="s">
@@ -1845,10 +1874,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="49"/>
-      <c r="E9" s="102">
+      <c r="E9" s="111">
         <v>44320</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="111">
         <v>44333</v>
       </c>
       <c r="G9" s="58">
@@ -1861,7 +1890,7 @@
       <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A10" s="82"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="38" t="s">
         <v>24</v>
       </c>
@@ -1869,8 +1898,8 @@
         <v>25</v>
       </c>
       <c r="D10" s="47"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="71">
         <v>44312</v>
       </c>
@@ -1881,7 +1910,7 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A11" s="82"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="38" t="s">
         <v>19</v>
       </c>
@@ -1889,8 +1918,8 @@
       <c r="D11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="72">
         <v>44312</v>
       </c>
@@ -1901,7 +1930,7 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A12" s="82"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="38" t="s">
         <v>27</v>
       </c>
@@ -1909,8 +1938,8 @@
       <c r="D12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="73">
         <v>44312</v>
       </c>
@@ -1923,7 +1952,7 @@
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A13" s="82"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="38" t="s">
         <v>29</v>
       </c>
@@ -1931,8 +1960,8 @@
       <c r="D13" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="71">
         <v>44312</v>
       </c>
@@ -1943,7 +1972,7 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A14" s="82"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
       </c>
@@ -1951,8 +1980,8 @@
       <c r="D14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="71">
         <v>44312</v>
       </c>
@@ -1963,7 +1992,7 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A15" s="82"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="38" t="s">
         <v>33</v>
       </c>
@@ -1971,8 +2000,8 @@
       <c r="D15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="71">
         <v>44312</v>
       </c>
@@ -1983,7 +2012,7 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A16" s="93"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="46" t="s">
         <v>35</v>
       </c>
@@ -1991,8 +2020,8 @@
       <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="74">
         <v>44312</v>
       </c>
@@ -2003,20 +2032,20 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="94" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="96">
+      <c r="D17" s="89"/>
+      <c r="E17" s="116">
         <v>44334</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="114">
         <v>44351</v>
       </c>
       <c r="G17" s="36"/>
@@ -2027,14 +2056,14 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="16.5">
-      <c r="A18" s="83"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="99"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="114"/>
       <c r="G18" s="42"/>
       <c r="H18" s="4"/>
       <c r="I18" s="77"/>
@@ -2043,250 +2072,256 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A19" s="83"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="99"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="42"/>
       <c r="H19" s="4"/>
       <c r="I19" s="77"/>
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A20" s="83"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="99"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="114"/>
       <c r="G20" s="42"/>
       <c r="H20" s="4"/>
       <c r="I20" s="77"/>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A21" s="83"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="99"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="114"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="78"/>
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A22" s="83"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="99"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="114"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="76"/>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A23" s="83"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="99"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="114"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="76"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A24" s="83"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="99"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="114"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="76"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A25" s="83"/>
-      <c r="B25" s="115" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="99"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="114"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="76"/>
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="82" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="55"/>
-      <c r="E26" s="111">
+      <c r="E26" s="108">
         <v>44354</v>
       </c>
-      <c r="F26" s="102">
+      <c r="F26" s="111">
         <v>44365</v>
       </c>
       <c r="G26" s="69">
         <v>44315</v>
       </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113">
+      <c r="H26" s="83"/>
+      <c r="I26" s="84">
         <v>0.3</v>
       </c>
-      <c r="J26" s="114"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A27" s="83"/>
-      <c r="B27" s="43" t="s">
+      <c r="A27" s="95"/>
+      <c r="B27" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="117"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="100"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="34"/>
       <c r="H27" s="4"/>
       <c r="I27" s="77"/>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A28" s="83"/>
-      <c r="B28" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118" t="s">
+      <c r="A28" s="119"/>
+      <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="100"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="109"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="34">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="16.5">
+      <c r="A29" s="95"/>
+      <c r="B29" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="109"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="34">
+        <v>44315</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="77">
         <v>0.1</v>
       </c>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A29" s="83"/>
-      <c r="B29" s="38" t="s">
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="16.5">
+      <c r="A30" s="95"/>
+      <c r="B30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C30" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A30" s="83"/>
-      <c r="B30" s="38" t="s">
+      <c r="D30" s="89"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="16.5">
+      <c r="A31" s="95"/>
+      <c r="B31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A31" s="83"/>
-      <c r="B31" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="100"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="76"/>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A32" s="83"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="100"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="76"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A33" s="84"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="95"/>
+      <c r="B33" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="16.5">
+      <c r="A34" s="97"/>
+      <c r="B34" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:12" ht="16.5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:12" ht="16.5">
       <c r="A35" s="1"/>
@@ -2302,24 +2337,38 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
+    <row r="36" spans="1:12" ht="16.5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C29:D33"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A16"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="F26:F34"/>
     <mergeCell ref="E9:E16"/>
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="E17:E25"/>
     <mergeCell ref="F17:F25"/>
     <mergeCell ref="C17:D25"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C30:D34"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>

--- a/task정의 및 일정.xlsx
+++ b/task정의 및 일정.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A018063-A838-4B73-903C-1ED8F40DBFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{753175A8-81A2-4EC8-8E57-FCA3471FB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,78 +1051,51 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1159,23 +1132,50 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,7 +1654,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -1716,7 +1716,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="91" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1744,7 +1744,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A4" s="103"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A5" s="104"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="87" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="54" t="s">
@@ -1816,7 +1816,7 @@
       <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="97" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -1826,10 +1826,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="49"/>
-      <c r="E7" s="98">
+      <c r="E7" s="119">
         <v>44316</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="121">
         <v>44319</v>
       </c>
       <c r="G7" s="69">
@@ -1842,7 +1842,7 @@
       <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A8" s="107"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="64" t="s">
         <v>19</v>
       </c>
@@ -1850,8 +1850,8 @@
       <c r="D8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="101"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="70">
         <v>44312</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="61" t="s">
@@ -1874,10 +1874,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="49"/>
-      <c r="E9" s="111">
+      <c r="E9" s="102">
         <v>44320</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="102">
         <v>44333</v>
       </c>
       <c r="G9" s="58">
@@ -1890,7 +1890,7 @@
       <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A10" s="94"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="38" t="s">
         <v>24</v>
       </c>
@@ -1898,8 +1898,8 @@
         <v>25</v>
       </c>
       <c r="D10" s="47"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="71">
         <v>44312</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A11" s="94"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="38" t="s">
         <v>19</v>
       </c>
@@ -1918,8 +1918,8 @@
       <c r="D11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="72">
         <v>44312</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A12" s="94"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="38" t="s">
         <v>27</v>
       </c>
@@ -1938,8 +1938,8 @@
       <c r="D12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="73">
         <v>44312</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A13" s="94"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="38" t="s">
         <v>29</v>
       </c>
@@ -1960,8 +1960,8 @@
       <c r="D13" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="71">
         <v>44312</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A14" s="94"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
       </c>
@@ -1980,8 +1980,8 @@
       <c r="D14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="71">
         <v>44312</v>
       </c>
@@ -1992,7 +1992,7 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A15" s="94"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="38" t="s">
         <v>33</v>
       </c>
@@ -2000,8 +2000,8 @@
       <c r="D15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="71">
         <v>44312</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A16" s="105"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="46" t="s">
         <v>35</v>
       </c>
@@ -2020,8 +2020,8 @@
       <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="74">
         <v>44312</v>
       </c>
@@ -2032,20 +2032,20 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="116">
+      <c r="D17" s="109"/>
+      <c r="E17" s="107">
         <v>44334</v>
       </c>
-      <c r="F17" s="114">
+      <c r="F17" s="105">
         <v>44351</v>
       </c>
       <c r="G17" s="36"/>
@@ -2056,14 +2056,14 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="16.5">
-      <c r="A18" s="95"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="114"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="42"/>
       <c r="H18" s="4"/>
       <c r="I18" s="77"/>
@@ -2072,176 +2072,176 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A19" s="95"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="42"/>
       <c r="H19" s="4"/>
       <c r="I19" s="77"/>
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A20" s="95"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="114"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="42"/>
       <c r="H20" s="4"/>
       <c r="I20" s="77"/>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A21" s="95"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="78"/>
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A22" s="95"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="114"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="76"/>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A23" s="95"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="114"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="76"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A24" s="95"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="114"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="76"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A25" s="95"/>
-      <c r="B25" s="86" t="s">
+      <c r="A25" s="116"/>
+      <c r="B25" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="114"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="76"/>
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="81" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="55"/>
-      <c r="E26" s="108">
+      <c r="E26" s="99">
         <v>44354</v>
       </c>
-      <c r="F26" s="111">
+      <c r="F26" s="102">
         <v>44365</v>
       </c>
       <c r="G26" s="69">
         <v>44315</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84">
+      <c r="H26" s="82"/>
+      <c r="I26" s="83">
         <v>0.3</v>
       </c>
-      <c r="J26" s="85"/>
+      <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A27" s="95"/>
-      <c r="B27" s="120" t="s">
+      <c r="A27" s="116"/>
+      <c r="B27" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="112"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="103"/>
       <c r="G27" s="34"/>
       <c r="H27" s="4"/>
       <c r="I27" s="77"/>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A28" s="119"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="122" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="112"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="34">
         <v>44316</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="77">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A29" s="95"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87" t="s">
+      <c r="C29" s="86"/>
+      <c r="D29" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="109"/>
-      <c r="F29" s="112"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="103"/>
       <c r="G29" s="34">
         <v>44315</v>
       </c>
@@ -2252,72 +2252,72 @@
       <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A30" s="95"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="112"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="103"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="78"/>
       <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A31" s="95"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="112"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="76"/>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A32" s="95"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="112"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="76"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A33" s="95"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="112"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="76"/>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A34" s="97"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="79"/>

--- a/task정의 및 일정.xlsx
+++ b/task정의 및 일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{753175A8-81A2-4EC8-8E57-FCA3471FB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F21ADA-9993-469A-AD4C-3604BE66B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발목록" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1069,9 +1069,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1077,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1655,7 +1655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.45"/>
@@ -1792,7 +1792,7 @@
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="90" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="54" t="s">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="77">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J11" s="37"/>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="76">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J13" s="19"/>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="76">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J14" s="19"/>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="76">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="79">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J16" s="20"/>
     </row>
@@ -2191,13 +2191,13 @@
       </c>
       <c r="H26" s="82"/>
       <c r="I26" s="83">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="16.5">
       <c r="A27" s="116"/>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="87" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="112" t="s">
@@ -2216,8 +2216,8 @@
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90" t="s">
+      <c r="C28" s="88"/>
+      <c r="D28" s="89" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="100"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="77">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J28" s="37"/>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="77">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J29" s="37"/>
     </row>

--- a/task정의 및 일정.xlsx
+++ b/task정의 및 일정.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F21ADA-9993-469A-AD4C-3604BE66B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CD9017D-78FD-496B-B0F3-17B84E4D741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -994,9 +994,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1052,9 +1049,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1654,8 +1648,8 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.45"/>
@@ -1716,7 +1710,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1744,7 +1738,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A4" s="92"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1762,7 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A5" s="93"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
@@ -1792,7 +1786,7 @@
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="88" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="54" t="s">
@@ -1816,7 +1810,7 @@
       <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="95" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -1826,45 +1820,47 @@
         <v>18</v>
       </c>
       <c r="D7" s="49"/>
-      <c r="E7" s="119">
+      <c r="E7" s="117">
         <v>44316</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="119">
         <v>44319</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="68">
         <v>44312</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="50">
+        <v>44322</v>
+      </c>
       <c r="I7" s="51">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A8" s="98"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="70">
+      <c r="E8" s="118"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="69">
         <v>44312</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="65">
         <v>44312</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <v>1</v>
       </c>
-      <c r="J8" s="68"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="92" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="61" t="s">
@@ -1874,23 +1870,25 @@
         <v>23</v>
       </c>
       <c r="D9" s="49"/>
-      <c r="E9" s="102">
+      <c r="E9" s="100">
         <v>44320</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="100">
         <v>44333</v>
       </c>
       <c r="G9" s="58">
         <v>44312</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="75">
-        <v>0.9</v>
-      </c>
-      <c r="J9" s="63"/>
+      <c r="H9" s="58">
+        <v>44322</v>
+      </c>
+      <c r="I9" s="74">
+        <v>1</v>
+      </c>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A10" s="95"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="38" t="s">
         <v>24</v>
       </c>
@@ -1898,19 +1896,21 @@
         <v>25</v>
       </c>
       <c r="D10" s="47"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="71">
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="70">
         <v>44312</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="76">
-        <v>0.9</v>
+      <c r="H10" s="35">
+        <v>44322</v>
+      </c>
+      <c r="I10" s="75">
+        <v>1</v>
       </c>
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A11" s="95"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="38" t="s">
         <v>19</v>
       </c>
@@ -1918,19 +1918,21 @@
       <c r="D11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="72">
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="71">
         <v>44312</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="77">
-        <v>0.9</v>
+      <c r="H11" s="34">
+        <v>44322</v>
+      </c>
+      <c r="I11" s="76">
+        <v>1</v>
       </c>
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A12" s="95"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="38" t="s">
         <v>27</v>
       </c>
@@ -1938,21 +1940,21 @@
       <c r="D12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="73">
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="72">
         <v>44312</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="69">
         <v>44312</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="77">
         <v>1</v>
       </c>
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A13" s="95"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="38" t="s">
         <v>29</v>
       </c>
@@ -1960,19 +1962,21 @@
       <c r="D13" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="71">
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="70">
         <v>44312</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="76">
-        <v>0.9</v>
+      <c r="H13" s="35">
+        <v>44322</v>
+      </c>
+      <c r="I13" s="75">
+        <v>1</v>
       </c>
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A14" s="95"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
       </c>
@@ -1980,19 +1984,21 @@
       <c r="D14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="71">
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="70">
         <v>44312</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="76">
-        <v>0.9</v>
+      <c r="H14" s="35">
+        <v>44322</v>
+      </c>
+      <c r="I14" s="75">
+        <v>1</v>
       </c>
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A15" s="95"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="38" t="s">
         <v>33</v>
       </c>
@@ -2000,19 +2006,21 @@
       <c r="D15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="71">
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="70">
         <v>44312</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="76">
-        <v>0.9</v>
+      <c r="H15" s="35">
+        <v>44322</v>
+      </c>
+      <c r="I15" s="75">
+        <v>1</v>
       </c>
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A16" s="96"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="46" t="s">
         <v>35</v>
       </c>
@@ -2020,307 +2028,313 @@
       <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="74">
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="73">
         <v>44312</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="79">
-        <v>0.9</v>
+      <c r="H16" s="73">
+        <v>44322</v>
+      </c>
+      <c r="I16" s="78">
+        <v>1</v>
       </c>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="93" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="107">
+      <c r="D17" s="107"/>
+      <c r="E17" s="105">
         <v>44334</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="103">
         <v>44351</v>
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="80"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="44"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="16.5">
-      <c r="A18" s="116"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="105"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="42"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="77"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="37"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A19" s="116"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="105"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="42"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="77"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A20" s="116"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="42"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="77"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A21" s="116"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="103"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="78"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A22" s="116"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="105"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="76"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A23" s="116"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="105"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="76"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A24" s="116"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="105"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="76"/>
+      <c r="I24" s="75"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A25" s="116"/>
-      <c r="B25" s="85" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="105"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="76"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="80" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="55"/>
-      <c r="E26" s="99">
+      <c r="E26" s="97">
         <v>44354</v>
       </c>
-      <c r="F26" s="102">
+      <c r="F26" s="100">
         <v>44365</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="68">
         <v>44315</v>
       </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83">
-        <v>0.9</v>
-      </c>
-      <c r="J26" s="84"/>
+      <c r="H26" s="68">
+        <v>44322</v>
+      </c>
+      <c r="I26" s="81">
+        <v>1</v>
+      </c>
+      <c r="J26" s="82"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A27" s="116"/>
-      <c r="B27" s="87" t="s">
+      <c r="A27" s="114"/>
+      <c r="B27" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="103"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="34"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="77"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A28" s="117"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89" t="s">
+      <c r="C28" s="86"/>
+      <c r="D28" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="100"/>
-      <c r="F28" s="103"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="101"/>
       <c r="G28" s="34">
         <v>44316</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="77">
-        <v>0.9</v>
+      <c r="H28" s="34">
+        <v>44322</v>
+      </c>
+      <c r="I28" s="76">
+        <v>1</v>
       </c>
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A29" s="116"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86" t="s">
+      <c r="C29" s="84"/>
+      <c r="D29" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="100"/>
-      <c r="F29" s="103"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="34">
         <v>44315</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="77">
+      <c r="H29" s="34"/>
+      <c r="I29" s="76">
         <v>0.2</v>
       </c>
       <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A30" s="116"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="103"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="101"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="78"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A31" s="116"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="103"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="101"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="76"/>
+      <c r="I31" s="75"/>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A32" s="116"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="103"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="101"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A33" s="116"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="103"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="101"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="76"/>
+      <c r="I33" s="75"/>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="16.5">
-      <c r="A34" s="118"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="104"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="79"/>
+      <c r="I34" s="78"/>
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:12" ht="16.5">
